--- a/review_list.xlsx
+++ b/review_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#project\Algorithm_Questions_Aries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D184581-A6F8-4A48-AA85-0EC0A7DB25A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B9798-086E-436B-B712-4A1C56EE325C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="1570" windowWidth="13700" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="code nippet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,130 @@
   </si>
   <si>
     <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>889. Construct Binary Tree from Preorder and Postorder Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>285. Inorder Successor in BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of islands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305. Number of Islands II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union Find | island</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permutations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eureka moment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search for a Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge intervals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get on get off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search in rotated sorted array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search in rotated sorted array II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meeting room II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>322, coin change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamic programming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172. Factorial Trailing Zeros</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>818. Pow(x, n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exponentiation by squaring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>621. Task Scheduler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greedy algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>371. Sum of Two Integers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -712,6 +836,164 @@
         <v>41</v>
       </c>
     </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -721,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6366FEC6-D713-4B6C-A326-41FB429586DA}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -812,8 +1094,25 @@
         <v>32</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>